--- a/Excel-XLSX/UN-LBY.xlsx
+++ b/Excel-XLSX/UN-LBY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3kY2YF</t>
+    <t>qP4NZw</t>
   </si>
   <si>
     <t>1993</t>
@@ -2403,55 +2403,49 @@
     <t>435</t>
   </si>
   <si>
+    <t>7614</t>
+  </si>
+  <si>
     <t>436</t>
   </si>
   <si>
-    <t>8512</t>
-  </si>
-  <si>
-    <t>2353</t>
-  </si>
-  <si>
-    <t>527</t>
+    <t>2054</t>
   </si>
   <si>
     <t>439</t>
   </si>
   <si>
+    <t>32791</t>
+  </si>
+  <si>
+    <t>93011</t>
+  </si>
+  <si>
     <t>441</t>
   </si>
   <si>
+    <t>650</t>
+  </si>
+  <si>
     <t>442</t>
   </si>
   <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>1024</t>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>199388</t>
+  </si>
+  <si>
+    <t>56260</t>
   </si>
   <si>
     <t>444</t>
   </si>
   <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>39121</t>
+    <t>8226</t>
   </si>
   <si>
     <t>445</t>
-  </si>
-  <si>
-    <t>10213</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>448</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2830,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V449"/>
+  <dimension ref="A1:V446"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -32305,16 +32299,16 @@
         <v>791</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>757</v>
+        <v>264</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>758</v>
+        <v>265</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>759</v>
+        <v>265</v>
       </c>
       <c r="J434" s="2" t="s">
         <v>29</v>
@@ -32332,7 +32326,7 @@
         <v>33</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P434" s="2" t="s">
         <v>33</v>
@@ -32373,16 +32367,16 @@
         <v>791</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J435" s="2" t="s">
         <v>29</v>
@@ -32400,7 +32394,7 @@
         <v>33</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P435" s="2" t="s">
         <v>33</v>
@@ -32441,16 +32435,16 @@
         <v>791</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="J436" s="2" t="s">
         <v>29</v>
@@ -32465,10 +32459,10 @@
         <v>31</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>51</v>
+        <v>795</v>
       </c>
       <c r="P436" s="2" t="s">
         <v>33</v>
@@ -32503,22 +32497,22 @@
         <v>22</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J437" s="2" t="s">
         <v>29</v>
@@ -32533,10 +32527,10 @@
         <v>31</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="P437" s="2" t="s">
         <v>33</v>
@@ -32577,16 +32571,16 @@
         <v>791</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J438" s="2" t="s">
         <v>29</v>
@@ -32601,10 +32595,10 @@
         <v>31</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="O438" s="2" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="P438" s="2" t="s">
         <v>33</v>
@@ -32645,16 +32639,16 @@
         <v>791</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>29</v>
@@ -32669,10 +32663,10 @@
         <v>31</v>
       </c>
       <c r="N439" s="2" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>798</v>
+        <v>150</v>
       </c>
       <c r="P439" s="2" t="s">
         <v>33</v>
@@ -32707,22 +32701,22 @@
         <v>22</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I440" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>29</v>
@@ -32737,19 +32731,19 @@
         <v>31</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="P440" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q440" s="2" t="s">
-        <v>33</v>
+        <v>799</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>33</v>
+        <v>800</v>
       </c>
       <c r="S440" s="2" t="s">
         <v>33</v>
@@ -32781,16 +32775,16 @@
         <v>791</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>29</v>
@@ -32808,13 +32802,13 @@
         <v>33</v>
       </c>
       <c r="O441" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P441" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q441" s="2" t="s">
-        <v>770</v>
+        <v>33</v>
       </c>
       <c r="R441" s="2" t="s">
         <v>33</v>
@@ -32843,22 +32837,22 @@
         <v>22</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>29</v>
@@ -32876,10 +32870,10 @@
         <v>33</v>
       </c>
       <c r="O442" s="2" t="s">
-        <v>73</v>
+        <v>802</v>
       </c>
       <c r="P442" s="2" t="s">
-        <v>33</v>
+        <v>584</v>
       </c>
       <c r="Q442" s="2" t="s">
         <v>33</v>
@@ -32911,22 +32905,22 @@
         <v>22</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>58</v>
+        <v>591</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>59</v>
+        <v>592</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>59</v>
+        <v>592</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>29</v>
@@ -32941,13 +32935,13 @@
         <v>31</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="P443" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Q443" s="2" t="s">
         <v>33</v>
@@ -32985,16 +32979,16 @@
         <v>791</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>591</v>
+        <v>96</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>592</v>
+        <v>97</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>592</v>
+        <v>98</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>29</v>
@@ -33009,10 +33003,10 @@
         <v>31</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>94</v>
+        <v>805</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="P444" s="2" t="s">
         <v>33</v>
@@ -33047,22 +33041,22 @@
         <v>22</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>29</v>
@@ -33077,10 +33071,10 @@
         <v>31</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>805</v>
+        <v>646</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P445" s="2" t="s">
         <v>33</v>
@@ -33115,22 +33109,22 @@
         <v>22</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>791</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>102</v>
+        <v>599</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>29</v>
@@ -33145,10 +33139,10 @@
         <v>31</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>705</v>
+        <v>51</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>808</v>
+        <v>213</v>
       </c>
       <c r="P446" s="2" t="s">
         <v>33</v>
@@ -33169,210 +33163,6 @@
         <v>34</v>
       </c>
       <c r="V446" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G447" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="H447" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="I447" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K447" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L447" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M447" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N447" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T447" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U447" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V447" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="H448" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="I448" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K448" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L448" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M448" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O448" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T448" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U448" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V448" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G449" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H449" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="I449" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J449" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K449" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L449" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M449" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N449" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O449" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="P449" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q449" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R449" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S449" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T449" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U449" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V449" s="2" t="s">
         <v>33</v>
       </c>
     </row>
